--- a/coordinates_sample/236太原郡/236太原郡.xlsx
+++ b/coordinates_sample/236太原郡/236太原郡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/236太原郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9502FF-56CE-344E-963D-409D0A2A6F7C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DA98FE-48FE-BD44-A789-22F4D2FDD3D0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="236(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8AB267-53D3-EB4C-BD6A-0E0A592A7067}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D80362F-4E49-4049-87CD-7055654C75D1}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
